--- a/Excel_Upload/testexcel.xlsx
+++ b/Excel_Upload/testexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Django Project\Excel_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968231E9-C12F-470E-A14A-3CDE03A77044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD49A89-198D-43DE-AF3D-DAE22A2B4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Ichalkaranji</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sambhapur</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ganesh@gamil.com</t>
+  </si>
+  <si>
+    <t>sangli</t>
+  </si>
+  <si>
+    <t>Phone number</t>
   </si>
 </sst>
 </file>
@@ -401,15 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +446,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -433,8 +460,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -444,8 +474,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>34663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -455,8 +488,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -465,6 +501,37 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5">
+        <v>67882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123566</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>53324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>62345</v>
       </c>
     </row>
   </sheetData>
@@ -473,6 +540,8 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7584CD5C-DC63-4D09-8C71-BFC92452E1ED}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{161AF11A-2B36-496B-9561-3EA06E354E0F}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{E7112F9D-EF27-4744-80A7-BA0A74179319}"/>
+    <hyperlink ref="C6" r:id="rId5" display="akhil@gamk.com" xr:uid="{09DE94F7-4824-466B-BDF5-E3A80EC068C6}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{69E97DC1-2E9C-40DB-9DE7-127952A64A0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
